--- a/biology/Botanique/Coteaux-du-cher-et-de-l'arnon/Coteaux-du-cher-et-de-l'arnon.xlsx
+++ b/biology/Botanique/Coteaux-du-cher-et-de-l'arnon/Coteaux-du-cher-et-de-l'arnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coteaux-du-cher-et-de-l%27arnon</t>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Coteaux-du-cher-et-de-l'arnon, anciennement vin de Pays des Coteaux-du-cher-et-de-l'arnon, est un vin français d'indication géographique protégée de zone, produit dans les départements du Cher et de l'Indre .
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coteaux-du-cher-et-de-l%27arnon</t>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de la vigne est ancienne sur ce territoire. En effet, la vigne était cultivée au VIIe siècle. 
 Au XIVe siècle, tour à tour, Charles VII, Jean, duc de Berry, ainsi que plus tard Jacques Cœur favorisèrent son développement. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coteaux-du-cher-et-de-l%27arnon</t>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de l'IGP
-Les communes du Cher
-8 communes sont concernées dans le Cher : Brinay, Cerbois, Chéry, Lazenay, Limeux, Lury-sur-Arnon, Preuilly et Quincy.
-Les communes de l'Indre
-2 communes sont concernées dans l'Indre : Diou et Reuilly.
-Orographie et géologie
-Climat
-Le climat du territoire est de type semi-continental. La zone connaît aussi des influences océaniques. En moyenne, les précipitations annuelles sont de l'ordre de 600 mm. Quant aux températures, leurs variations est faible. L'ensoleillement est marqué en été. D'où des mois estivaux chauds et secs.
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Les communes du Cher</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 communes sont concernées dans le Cher : Brinay, Cerbois, Chéry, Lazenay, Limeux, Lury-sur-Arnon, Preuilly et Quincy.
 </t>
         </is>
       </c>
@@ -566,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coteaux-du-cher-et-de-l%27arnon</t>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,28 +598,223 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les communes de l'Indre</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 communes sont concernées dans l'Indre : Diou et Reuilly.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-cher-et-de-l%27arnon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat du territoire est de type semi-continental. La zone connaît aussi des influences océaniques. En moyenne, les précipitations annuelles sont de l'ordre de 600 mm. Quant aux températures, leurs variations est faible. L'ensoleillement est marqué en été. D'où des mois estivaux chauds et secs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-cher-et-de-l%27arnon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Conditions de production
-Encépagement
-Cépages rouges
-Les cépages utilisés pour les vins rouges sont le gamay N, le gamay de Bouze N, le gamay de Chaudenay N, le pinot gris G et le  pinot noir N.
-Cépages rosés
-Les cépages utilisés pour les vins rosés sont le gamay N, le gamay de Bouze N, le gamay de Chaudenay N, le pinot gris G, le pinot noir N,
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés pour les vins rouges sont le gamay N, le gamay de Bouze N, le gamay de Chaudenay N, le pinot gris G et le  pinot noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-cher-et-de-l%27arnon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cépages rosés</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés pour les vins rosés sont le gamay N, le gamay de Bouze N, le gamay de Chaudenay N, le pinot gris G, le pinot noir N,
 le sauvignon B et le sauvignon gris G.
-Cépages blancs
-Les cépages utilisés pour les vins blancs sont le chardonnay B, le pinot blanc B. le sauvignon B et le sauvignon gris G.
-Types de vin
-Il existe 3 labellisations différentes :
-Coteaux du Cher et de l'Arnon blanc[1]
-Coteaux du Cher et de l'Arnon rosé[2]
-Coteaux du Cher et de l'Arnon rouge[3]
-Vin et gastronomie
-Production et structure des exploitations</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-cher-et-de-l%27arnon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés pour les vins blancs sont le chardonnay B, le pinot blanc B. le sauvignon B et le sauvignon gris G.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coteaux-du-cher-et-de-l'arnon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-cher-et-de-l%27arnon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il existe 3 labellisations différentes :
+Coteaux du Cher et de l'Arnon blanc
+Coteaux du Cher et de l'Arnon rosé
+Coteaux du Cher et de l'Arnon rouge</t>
         </is>
       </c>
     </row>
